--- a/emerging technologies/artificial intelligence/AI Self Assessment.xlsx
+++ b/emerging technologies/artificial intelligence/AI Self Assessment.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nanabanyin.Tandoh\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nanabanyin.Tandoh\OneDrive - Guaranty Trust Bank PLC\Documents\WORK\IT AUDIT\upload\emerging technologies\artificial intelligence\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,7 +13,6 @@
   </bookViews>
   <sheets>
     <sheet name="Self Assessment " sheetId="1" r:id="rId1"/>
-    <sheet name="Glossary " sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -2587,15 +2586,15 @@
 N/A [It would be N/A for external stakeholders because it has been deployed in house] </t>
   </si>
   <si>
-    <t>CalGPT – A Large Language Model (LLM), similar to ChatGPT or Gemini, designed to provide accurate, word-for-word references from the organization’s Standard Operating Procedures (SOPs). It serves as a tool to efficiently onboard new staff and keep existing employees informed of management’s procedures, ensuring consistency, compliance, and operational clarity across the organization.</t>
-  </si>
-  <si>
     <t>[The requirements for system deployment and operation would be defined in the business case, risk assessment performed, feasibility study and technical details- stating whether a local large language model was used or otherwise]</t>
+  </si>
+  <si>
+    <t>CarGPT – A Large Language Model (LLM), similar to ChatGPT or Gemini, designed to provide accurate, word-for-word references from the organization’s Standard Operating Procedures (SOPs). It serves as a tool to efficiently onboard new staff and keep existing employees informed of management’s procedures, ensuring consistency, compliance, and operational clarity across the organization.</t>
   </si>
   <si>
     <t>Yes [Include a description of the mechanisms and safeguards in place]  
 No
-N/A                                                                                                                                            While CalGPT is designed to accurately reflect organizational Standard Operating Procedures (SOPs), there are critical risk areas to consider:
+N/A                                                                                                                                            While CarGPT is designed to accurately reflect organizational Standard Operating Procedures (SOPs), there are critical risk areas to consider:
 User Safety Risks – If staff use the AI for advice outside its intended scope (e.g., personal health or safety questions), hallucinations could result in harmful guidance. Example: A query like “I have a headache, what should I do?” could generate dangerous suggestions if misinterpreted.
 Operational &amp; Decision-Making Risks – If the AI influences key organizational decisions, such as financial reporting to regulators or compliance actions, incorrect outputs could have serious legal or financial consequences.
 Immediate Deployment Risks – Deploying the AI without proper controls or training could result in misuse before safeguards are fully in place.
@@ -3500,8 +3499,8 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A280" sqref="A280"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1"/>
@@ -3681,7 +3680,7 @@
         <v>19</v>
       </c>
       <c r="E8" s="37" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F8" s="38"/>
       <c r="G8" s="39"/>
@@ -3741,7 +3740,7 @@
         <v>25</v>
       </c>
       <c r="E11" s="37" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F11" s="38"/>
       <c r="G11" s="39"/>
@@ -9623,18 +9622,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>